--- a/downloaded_files/MDPS241_Tutorial-35696.xlsx
+++ b/downloaded_files/MDPS241_Tutorial-35696.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,24 +42,6 @@
     <x:t>Alaa Ahmed Mohamed Abdelkader</x:t>
   </x:si>
   <x:si>
-    <x:t>1240003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد باسم وجيه رجب الخولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Bassem Wagih Ragab Elkholy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد طارق منير يوسف المنوفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200093</x:t>
   </x:si>
   <x:si>
@@ -87,15 +69,6 @@
     <x:t>Ahmed Waleed Mohamed Nabih</x:t>
   </x:si>
   <x:si>
-    <x:t>1240177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اكرم تيسير فهيم عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِ Akram Tisser Fahim Abdel Halim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210199</x:t>
   </x:si>
   <x:si>
@@ -222,15 +195,6 @@
     <x:t>Rawan Amgad Mohamed Elhewehy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سعد عبد الغني صباغ شرباتي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>saad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240095</x:t>
   </x:si>
   <x:si>
@@ -258,15 +222,6 @@
     <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد محمد سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Mohamed Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240259</x:t>
   </x:si>
   <x:si>
@@ -328,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Mohamed Mamdouh Ashour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هادى عبدالعال رضا عبدالعال سلطان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hady Abdelaal Reda</x:t>
   </x:si>
   <x:si>
     <x:t>1240391</x:t>
@@ -479,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -902,7 +848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6662866898</x:v>
+        <x:v>45911.9753572106</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -934,7 +880,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6648148958</x:v>
+        <x:v>45907.6659939468</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45911.9753572106</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6659939468</x:v>
+        <x:v>45906.7918039352</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.7918039352</x:v>
+        <x:v>45907.6663570255</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6663570255</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45906.6684152778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6684152778</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6660501968</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6660501968</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6660042824</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45911.9840995023</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6660042824</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,198 +1794,6 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6664172454</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45911.9840995023</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6658238773</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.6651739583</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.6660851505</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.6656088773</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2052,9 +1806,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes I (MDPS241) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS241_Tutorial-35696.xlsx
+++ b/downloaded_files/MDPS241_Tutorial-35696.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Rawan Amgad Mohamed Elhewehy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف احمد منير محمد عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Ahmed Monir Mohamed Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1392,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45922.8131039352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6660501968</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6660501968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660042824</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6660042824</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45911.9840995023</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45911.9840995023</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS241_Tutorial-35696.xlsx
+++ b/downloaded_files/MDPS241_Tutorial-35696.xlsx
@@ -111,7 +111,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1230172</x:t>
@@ -743,7 +743,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.200625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.840625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS241_Tutorial-35696.xlsx
+++ b/downloaded_files/MDPS241_Tutorial-35696.xlsx
@@ -222,6 +222,15 @@
     <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
   </x:si>
   <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240355</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حماده حليم صالح الحوت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
   </x:si>
   <x:si>
     <x:t>1240152</x:t>
@@ -742,7 +742,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.200625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1497,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6660501968</x:v>
+        <x:v>45927.4890712616</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6660501968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660042824</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
